--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_24</t>
+          <t>model_20_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999986398370629</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999008369054163</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999388412620922</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999780954051812</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999677573444583</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G2" t="n">
-        <v>1.26965239753706e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009256439603709463</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I2" t="n">
-        <v>4.101166666585967e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.803761613935938e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.952464140260952e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000177047700389041</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003563218204849459</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000025110700377</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003714911780708433</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P2" t="n">
-        <v>96.54836460937976</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.6467701295032</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_23</t>
+          <t>model_20_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999865050733948</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990078682694012</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999392894598379</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999783233374586</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999680413755293</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G3" t="n">
-        <v>1.259692162716595e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009261114209641469</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I3" t="n">
-        <v>4.07111153926662e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.764180875084948e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>3.917646207175784e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001785610623269095</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003549214226722015</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000024913710656</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003700311624239873</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P3" t="n">
-        <v>96.56411617832195</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q3" t="n">
-        <v>141.6625216984454</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_22</t>
+          <t>model_20_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999866680817374</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999007428176365</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999400516246867</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999786181388272</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999968458644126</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G4" t="n">
-        <v>1.244476049459396e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009265222284956609</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>4.020002487979878e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.71298823085686e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>3.866495359418369e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001798944369160078</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00352771321036645</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000024612772177</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003677895265104812</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>96.58842173488176</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.6868272550052</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_21</t>
+          <t>model_20_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999868074204</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990068896656399</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999406996865607</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999788898241002</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999688283309097</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G5" t="n">
-        <v>1.231469396924089e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009270249046197237</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>3.976544924158947e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.665809726928784e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>3.821177325543865e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000181565135061887</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003509229825651333</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000024355531569</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003658625004436492</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>96.60943475388979</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>141.7078402740132</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_20</t>
+          <t>model_20_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999869932383699</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999006427619599</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999415634763066</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999792513379755</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999693206472625</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G6" t="n">
-        <v>1.214124105080785e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009274562043173349</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>3.918621137079124e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.60303236844183e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>3.760826752760477e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001830954034878862</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003484428367868659</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000024012483009</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003632767697249914</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>96.63780509863999</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>141.7362106187634</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_19</t>
+          <t>model_20_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999872051249747</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990056126096415</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99994260253588</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999796436258468</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999698826995161</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G7" t="n">
-        <v>1.194345420595159e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009282169803378435</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>3.848944151701136e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.534911065174675e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>3.691927608437906e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001851028218963471</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003455930295296998</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000023621307739</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003603056402729734</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>96.6706543897145</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.7690599098379</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_18</t>
+          <t>model_20_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999873805034399</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990049189040633</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999434239350009</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999800162996483</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999703713258415</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G8" t="n">
-        <v>1.177974610694901e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009288645240449905</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>3.793862984072988e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.470195770851508e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>3.632029377462248e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001872523180252497</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003432163473226328</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000023297532111</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003578277777839412</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>96.69825786572736</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.7966633858508</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_17</t>
+          <t>model_20_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999875134075787</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990038013418354</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999440158190618</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999980362163028</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999707781867188</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G9" t="n">
-        <v>1.16556859271662e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009299077193293708</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>3.754172577370944e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.41013614142705e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>3.582154359398997e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001905596658352279</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00341404246124242</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000023052170624</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003559385316859683</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>96.71943286919718</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>141.8178383893206</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_16</t>
+          <t>model_20_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999877029967589</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990025437851119</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999449122179542</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999808001821723</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999713336100705</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G10" t="n">
-        <v>1.147871274955396e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009310815933304803</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>3.694062094657046e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.334073542643542e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>3.514067818650294e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001937245630676083</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003388024903915844</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00002270215983</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003532260138253946</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>96.75003260637934</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8484381265027</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_15</t>
+          <t>model_20_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999878864381322</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990012887934578</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999459201445016</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999812012577795</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999718933712253</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G11" t="n">
-        <v>1.130747827965583e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009322530729516862</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>3.626472819604852e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.264426237525837e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>3.445449528565345e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001969314414894434</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003362659405835779</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000022363498833</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003505814778406793</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>96.78009251295137</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.8784980330748</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_14</t>
+          <t>model_20_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999988132141384</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989999436676307</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999472007805287</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999817416430947</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999726263942543</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G12" t="n">
-        <v>1.107812507919545e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000933508688867199</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>3.540596263516994e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.170587618934831e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>3.355591941225913e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002000302656323828</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003328381750820577</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000021909892829</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003470077852653066</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>96.82107621528601</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.9194817354094</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_13</t>
+          <t>model_20_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999884255456414</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998998556311686</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999488011327841</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999823468925831</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999734928072204</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G13" t="n">
-        <v>1.080424508392815e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009348037247436718</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>3.433280260126288e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.065485251594875e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>3.249382755860582e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002029041799114341</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00328698115052827</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000021368223431</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003426914743095258</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>96.87114287547314</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.9695483955966</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999886187228493</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989970004879215</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999949829926134</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999982893200528</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999741611423383</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G14" t="n">
-        <v>1.062392263989911e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009362560179350197</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>3.364291704473488e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.970618160581554e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>3.16745493252752e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002068165044520599</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003259435938916289</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000021011588586</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003398196874798507</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>96.90480449378542</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>142.0032100139088</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_11</t>
+          <t>model_20_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999888663990716</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998994876035298</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999511642740186</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999835637251592</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999750010327264</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G15" t="n">
-        <v>1.039272775809403e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009382391012063859</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>3.274813352674186e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.854180679127573e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>3.06449701590088e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002112606923897629</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003223775388902588</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000020554340175</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003361018181343207</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>96.94880850087699</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.0472140210004</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_10</t>
+          <t>model_20_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999892965642411</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989937598117913</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999535908537082</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999844785026245</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999763126670975</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G16" t="n">
-        <v>9.991187454472024e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009392810468533672</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>3.112092405893751e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.695328372715669e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>2.90371038930471e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002130492863050569</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00316088396725853</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000019760189093</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003295449341676571</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>97.0276142161122</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.1260197362356</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_9</t>
+          <t>model_20_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999896596987936</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989909638568019</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999556525815239</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999853156439431</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999774693955328</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G17" t="n">
-        <v>9.652217289421589e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009418909481077418</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>2.973837600732206e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.549957684992644e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>2.761912898274747e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002165617342722643</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003106801778263555</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000019089786843</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003239064761930516</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>97.09664579616432</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>142.1950513162877</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_8</t>
+          <t>model_20_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999901176179471</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989891367556226</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999582622159147</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999863790056972</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999978936463354</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G18" t="n">
-        <v>9.22476985997768e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009435964668580666</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>2.798841419619172e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.365303522005433e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>2.582072470812302e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000218706261587808</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003037230623442625</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000018244397636</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003166531819016714</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>97.18723663155353</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.285642151677</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_7</t>
+          <t>model_20_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999906296772736</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989873550701092</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999612802168072</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999987484938717</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999980545254042</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G19" t="n">
-        <v>8.74678495543435e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009452595920779923</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>2.596461104337972e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.173256802883846e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>2.384858953610909e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002187294034350538</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002957496399902179</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000017299057341</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003083403144507555</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>97.29364871755936</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.3920542376828</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_6</t>
+          <t>model_20_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999912860103891</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989855396640621</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999965091406143</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999988835181416</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999825440360127</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G20" t="n">
-        <v>8.134126801856088e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009469541939357919</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>2.340891365675883e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.938785387618792e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>2.139838376647337e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002175567260396959</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002852039060366475</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000016087365436</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002973456267701029</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>97.43888432297281</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.5372898430962</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_5</t>
+          <t>model_20_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999924460366993</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989847681480356</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999712879325516</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999907354844493</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999855848464706</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G21" t="n">
-        <v>7.051293160530489e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009476743702808411</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>1.925366316838739e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.60879527400623e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>1.767080795422484e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00020903069454543</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002655427114520466</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000013945778401</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002768474144277519</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>97.72459906187035</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.8230045819938</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_4</t>
+          <t>model_20_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999931543127646</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989833237562598</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999975414785428</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999922466571152</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999877839523196</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G22" t="n">
-        <v>6.390148543322539e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009490226466021166</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>1.648628894951931e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.346378158977615e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>1.497503526964773e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002045339919651959</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002527874313197264</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000012638191819</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002635491156131289</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>97.92150608725731</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>143.0199116073807</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_0</t>
+          <t>model_20_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999963354536634</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989818622617028</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999945715122288</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999983588958783</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999973532293083</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G23" t="n">
-        <v>3.420693150225975e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009503868876188596</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>3.640221145648017e-06</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84979882723448e-06</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>3.244542383554475e-06</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001509354578265179</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001849511597753844</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000006765316314</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001928249135487034</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>99.17133470384199</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.2697402239654</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_3</t>
+          <t>model_20_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999994007687689</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989816437006711</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99998040941591</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999937983767972</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999902491277368</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G24" t="n">
-        <v>5.593560510214935e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009505909047482571</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>1.313700269126011e-05</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.076920001386401e-05</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>1.195310135256206e-05</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001954401627620805</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002365070931328474</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00001106273042</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002465756897246884</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>98.18778906153173</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.2861945816551</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_2</t>
+          <t>model_20_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999948590288638</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989807961200091</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999853577664017</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999954517890397</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999927736726589</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G25" t="n">
-        <v>4.798870893130763e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009513820840916884</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>9.818750747941778e-06</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>7.898027973643951e-06</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>8.858389360792864e-06</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001839728398530051</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002190632532655982</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000009491023636</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002283892294805639</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>98.49425979663849</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>143.5926653167619</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_9_1</t>
+          <t>model_20_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.99999561601126</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989807517833733</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999900296279458</v>
+        <v>0.9999263974156001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999970210953888</v>
+        <v>0.999999999999971</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999951630222583</v>
+        <v>0.9999923594531607</v>
       </c>
       <c r="G26" t="n">
-        <v>4.092261053966572e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009514234703950871</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>6.685906040730325e-06</v>
+        <v>1.861334088287764e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>5.172906919953805e-06</v>
+        <v>3.212045130694012e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>5.929406480342065e-06</v>
+        <v>9.306670457499044e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001701073665532336</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002022933773994238</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000008093517674</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002109054252803378</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>98.81282583146054</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.911231351584</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
